--- a/Data/Dialogs/dlgProfil.xlsx
+++ b/Data/Dialogs/dlgProfil.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\PythonProject1\Data\Dialogs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Dialogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E1B161-C9A7-4C04-B912-67C06A312427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B696A3-0157-4755-837C-C6979DECE219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3696" yWindow="420" windowWidth="15888" windowHeight="7632" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
+    <workbookView xWindow="372" yWindow="1320" windowWidth="40440" windowHeight="15300" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>Control</t>
   </si>
@@ -55,6 +55,30 @@
   </si>
   <si>
     <t>&lt;NOP&gt;</t>
+  </si>
+  <si>
+    <t>Auswahl Page Benachrichtigungen</t>
+  </si>
+  <si>
+    <t>&lt;SET&gt;</t>
+  </si>
+  <si>
+    <t>&lt;SELECT&gt;</t>
+  </si>
+  <si>
+    <t>Auswahl Page Abwesenheiten</t>
+  </si>
+  <si>
+    <t>Auswahl Page Profil</t>
+  </si>
+  <si>
+    <t>xpath=//*/li[@class = 'nav-item']/a[text()=" Benachrichtigungen"]</t>
+  </si>
+  <si>
+    <t>xpath=//*/li[@class = 'nav-item']/a[text()=' Abwesenheiten')]</t>
+  </si>
+  <si>
+    <t>xpath=//*/li[@class = 'nav-item']/a[text()=' Profil')]</t>
   </si>
 </sst>
 </file>
@@ -107,6 +131,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3387139</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>170400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Grafik 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0550D500-11BB-5636-EDB4-A679050BA7E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1463040"/>
+          <a:ext cx="14847619" cy="8400000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -406,19 +479,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82737E07-8287-4E6B-9130-6C87B574EFB8}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="42.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.21875" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" customWidth="1"/>
+    <col min="3" max="4" width="56.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -448,6 +520,15 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
       <c r="F2" t="s">
         <v>2</v>
       </c>
@@ -463,7 +544,50 @@
         <v>9</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/Dialogs/dlgProfil.xlsx
+++ b/Data/Dialogs/dlgProfil.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Dialogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B696A3-0157-4755-837C-C6979DECE219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C469076-D433-4B2A-ACEC-325A87145B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="372" yWindow="1320" windowWidth="40440" windowHeight="15300" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>Control</t>
   </si>
@@ -72,13 +72,19 @@
     <t>Auswahl Page Profil</t>
   </si>
   <si>
-    <t>xpath=//*/li[@class = 'nav-item']/a[text()=" Benachrichtigungen"]</t>
-  </si>
-  <si>
-    <t>xpath=//*/li[@class = 'nav-item']/a[text()=' Abwesenheiten')]</t>
-  </si>
-  <si>
-    <t>xpath=//*/li[@class = 'nav-item']/a[text()=' Profil')]</t>
+    <t>&lt;SELECTED&gt;</t>
+  </si>
+  <si>
+    <t>&lt;NOTSELECTED&gt;</t>
+  </si>
+  <si>
+    <t>xpath=//*/li[@class = 'nav-item']/a[text()=' Profil']</t>
+  </si>
+  <si>
+    <t>xpath=//*/li[@class = 'nav-item']/a[text()=' Abwesenheiten']</t>
+  </si>
+  <si>
+    <t>xpath=//*/li[@class = 'nav-item']/a[text()=' Benachrichtigungen']</t>
   </si>
 </sst>
 </file>
@@ -482,7 +488,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -524,10 +530,10 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -540,6 +546,15 @@
       <c r="B3" t="s">
         <v>5</v>
       </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
       <c r="F3" t="s">
         <v>9</v>
       </c>
@@ -588,6 +603,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Data/Dialogs/dlgProfil.xlsx
+++ b/Data/Dialogs/dlgProfil.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Dialogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C469076-D433-4B2A-ACEC-325A87145B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E92E2D-D48F-40A6-819F-9AB3436A216C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="372" yWindow="1320" windowWidth="40440" windowHeight="15300" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
+    <workbookView xWindow="840" yWindow="1980" windowWidth="40440" windowHeight="15300" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -488,7 +488,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Data/Dialogs/dlgProfil.xlsx
+++ b/Data/Dialogs/dlgProfil.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Dialogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E92E2D-D48F-40A6-819F-9AB3436A216C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A01CEE6-C3AF-43EB-98B5-290099C88199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="1980" windowWidth="40440" windowHeight="15300" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
+    <workbookView xWindow="5856" yWindow="6036" windowWidth="40440" windowHeight="15300" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
   <si>
     <t>Control</t>
   </si>
@@ -85,6 +85,15 @@
   </si>
   <si>
     <t>xpath=//*/li[@class = 'nav-item']/a[text()=' Benachrichtigungen']</t>
+  </si>
+  <si>
+    <t>Check defaults Page Profil</t>
+  </si>
+  <si>
+    <t>Check defaults Page Abwesenheiten</t>
+  </si>
+  <si>
+    <t>Check defaults Page Benachrichtigungen</t>
   </si>
 </sst>
 </file>
@@ -145,14 +154,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>3387139</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>170400</xdr:rowOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>94200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -175,7 +184,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="1463040"/>
+          <a:off x="0" y="1935480"/>
           <a:ext cx="14847619" cy="8400000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -485,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82737E07-8287-4E6B-9130-6C87B574EFB8}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -601,6 +610,48 @@
         <v>9</v>
       </c>
     </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Data/Dialogs/dlgProfil.xlsx
+++ b/Data/Dialogs/dlgProfil.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Dialogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A01CEE6-C3AF-43EB-98B5-290099C88199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F93F425-D6A3-42D2-8BB1-2D7169C35C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5856" yWindow="6036" windowWidth="40440" windowHeight="15300" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
+    <workbookView xWindow="840" yWindow="1152" windowWidth="40440" windowHeight="15300" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
   <si>
     <t>Control</t>
   </si>
@@ -94,6 +94,18 @@
   </si>
   <si>
     <t>Check defaults Page Benachrichtigungen</t>
+  </si>
+  <si>
+    <t>Abwesenheit anlegen Page Abwesenheiten</t>
+  </si>
+  <si>
+    <t>Abwesenheit anlegen</t>
+  </si>
+  <si>
+    <t>Abwesenheit Sylvester checken</t>
+  </si>
+  <si>
+    <t>Abwesenheit Sylvester löschen</t>
   </si>
 </sst>
 </file>
@@ -153,15 +165,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>3387139</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>94200</xdr:rowOff>
+      <xdr:colOff>3105199</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>162780</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -184,7 +196,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="1935480"/>
+          <a:off x="15240" y="2735580"/>
           <a:ext cx="14847619" cy="8400000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -494,15 +506,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82737E07-8287-4E6B-9130-6C87B574EFB8}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47" customWidth="1"/>
     <col min="2" max="2" width="12.21875" customWidth="1"/>
     <col min="3" max="4" width="56.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="59.6640625" bestFit="1" customWidth="1"/>
@@ -652,6 +664,48 @@
         <v>9</v>
       </c>
     </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Data/Dialogs/dlgProfil.xlsx
+++ b/Data/Dialogs/dlgProfil.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Dialogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F93F425-D6A3-42D2-8BB1-2D7169C35C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9619A4-6E9E-48CE-AF4C-1EA1974E728B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="1152" windowWidth="40440" windowHeight="15300" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
+    <workbookView xWindow="840" yWindow="1920" windowWidth="40440" windowHeight="15300" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -509,7 +509,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Data/Dialogs/dlgProfil.xlsx
+++ b/Data/Dialogs/dlgProfil.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Dialogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9619A4-6E9E-48CE-AF4C-1EA1974E728B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81103B93-0090-45FD-85EB-983AF9256E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="1920" windowWidth="40440" windowHeight="15300" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
+    <workbookView xWindow="1584" yWindow="264" windowWidth="37188" windowHeight="15300" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
-  <si>
-    <t>Control</t>
-  </si>
-  <si>
-    <t>Record/Selector</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="30">
   <si>
     <t>Action</t>
   </si>
@@ -106,13 +100,28 @@
   </si>
   <si>
     <t>Abwesenheit Sylvester löschen</t>
+  </si>
+  <si>
+    <t>Chromium</t>
+  </si>
+  <si>
+    <t>Web</t>
+  </si>
+  <si>
+    <t>Pixel9Pro_API35</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Record / Control </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,13 +129,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -141,8 +170,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -166,13 +198,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>3105199</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>162780</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -506,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82737E07-8287-4E6B-9130-6C87B574EFB8}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -521,189 +553,203 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
+      <c r="F3" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
+      <c r="E4" t="s">
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
         <v>3</v>
       </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
       <c r="F8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" t="s">
         <v>3</v>
       </c>
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
         <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Dialogs/dlgProfil.xlsx
+++ b/Data/Dialogs/dlgProfil.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Dialogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81103B93-0090-45FD-85EB-983AF9256E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB98D67-4711-4184-9164-2004231484C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1584" yWindow="264" windowWidth="37188" windowHeight="15300" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
+    <workbookView xWindow="852" yWindow="780" windowWidth="37308" windowHeight="15300" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="35">
   <si>
     <t>Action</t>
   </si>
@@ -115,6 +115,21 @@
   </si>
   <si>
     <t xml:space="preserve">Record / Control </t>
+  </si>
+  <si>
+    <t>pagGeldVerdienen</t>
+  </si>
+  <si>
+    <t>//android.view.View[@content-desc=" Profil"]/android.widget.TextView[@text="Profil"]</t>
+  </si>
+  <si>
+    <t>//android.view.View[@content-desc=" Benachrichtigungen"]/android.widget.TextView[@text="Benachrichtigungen"]</t>
+  </si>
+  <si>
+    <t>//android.view.View[@content-desc=" Abwesenheiten"]/android.widget.TextView[@text="Abwesenheiten"]</t>
+  </si>
+  <si>
+    <t>//android.view.View[@content-desc=" Geld verdienen"]/android.widget.TextView[@text="Geld verdienen"]</t>
   </si>
 </sst>
 </file>
@@ -138,7 +153,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -157,6 +172,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -170,11 +191,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -202,8 +224,8 @@
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>3105199</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5078779</xdr:colOff>
       <xdr:row>61</xdr:row>
       <xdr:rowOff>162780</xdr:rowOff>
     </xdr:to>
@@ -538,21 +560,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82737E07-8287-4E6B-9130-6C87B574EFB8}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="47" customWidth="1"/>
     <col min="2" max="2" width="12.21875" customWidth="1"/>
-    <col min="3" max="4" width="56.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="59.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="83.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="92" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="99.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="91.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -568,25 +592,35 @@
       <c r="E1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4"/>
+      <c r="G1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -603,10 +637,13 @@
         <v>6</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -622,11 +659,11 @@
       <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -636,11 +673,11 @@
       <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="F5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -650,11 +687,11 @@
       <c r="D6" t="s">
         <v>10</v>
       </c>
-      <c r="F6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -664,11 +701,11 @@
       <c r="E7" t="s">
         <v>10</v>
       </c>
-      <c r="F7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -678,11 +715,11 @@
       <c r="C8" t="s">
         <v>1</v>
       </c>
-      <c r="F8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -692,11 +729,11 @@
       <c r="D9" t="s">
         <v>1</v>
       </c>
-      <c r="F9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -706,11 +743,11 @@
       <c r="E10" t="s">
         <v>1</v>
       </c>
-      <c r="F10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -720,11 +757,11 @@
       <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="F11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -734,11 +771,11 @@
       <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="F12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -748,7 +785,7 @@
       <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Data/Dialogs/dlgProfil.xlsx
+++ b/Data/Dialogs/dlgProfil.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Dialogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB98D67-4711-4184-9164-2004231484C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7A67E6-CA21-4033-AE5A-832666A62FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="852" yWindow="780" windowWidth="37308" windowHeight="15300" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
+    <workbookView xWindow="3564" yWindow="1056" windowWidth="38676" windowHeight="15300" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
   <si>
     <t>Action</t>
   </si>
@@ -126,10 +126,13 @@
     <t>//android.view.View[@content-desc=" Benachrichtigungen"]/android.widget.TextView[@text="Benachrichtigungen"]</t>
   </si>
   <si>
-    <t>//android.view.View[@content-desc=" Abwesenheiten"]/android.widget.TextView[@text="Abwesenheiten"]</t>
-  </si>
-  <si>
     <t>//android.view.View[@content-desc=" Geld verdienen"]/android.widget.TextView[@text="Geld verdienen"]</t>
+  </si>
+  <si>
+    <t>//android.webkit.WebView/android.widget.ListView</t>
+  </si>
+  <si>
+    <t>//android.webkit.WebView/android.widget.ListView//android.view.View[@content-desc=" Abwesenheiten"]/android.widget.TextView[@text="Abwesenheiten"]</t>
   </si>
 </sst>
 </file>
@@ -560,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82737E07-8287-4E6B-9130-6C87B574EFB8}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -571,7 +574,7 @@
     <col min="1" max="1" width="47" customWidth="1"/>
     <col min="2" max="2" width="12.21875" customWidth="1"/>
     <col min="3" max="3" width="83.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="92" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="110.5546875" customWidth="1"/>
     <col min="5" max="5" width="99.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="91.33203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -608,13 +611,13 @@
         <v>31</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>32</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
         <v>0</v>
@@ -787,6 +790,11 @@
       </c>
       <c r="G13" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Dialogs/dlgProfil.xlsx
+++ b/Data/Dialogs/dlgProfil.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Dialogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7A67E6-CA21-4033-AE5A-832666A62FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362E81E9-6679-4B13-B2DA-41831F2A0207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3564" yWindow="1056" windowWidth="38676" windowHeight="15300" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
+    <workbookView xWindow="1152" yWindow="912" windowWidth="31932" windowHeight="15768" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -120,19 +120,19 @@
     <t>pagGeldVerdienen</t>
   </si>
   <si>
-    <t>//android.view.View[@content-desc=" Profil"]/android.widget.TextView[@text="Profil"]</t>
-  </si>
-  <si>
-    <t>//android.view.View[@content-desc=" Benachrichtigungen"]/android.widget.TextView[@text="Benachrichtigungen"]</t>
-  </si>
-  <si>
-    <t>//android.view.View[@content-desc=" Geld verdienen"]/android.widget.TextView[@text="Geld verdienen"]</t>
-  </si>
-  <si>
     <t>//android.webkit.WebView/android.widget.ListView</t>
   </si>
   <si>
-    <t>//android.webkit.WebView/android.widget.ListView//android.view.View[@content-desc=" Abwesenheiten"]/android.widget.TextView[@text="Abwesenheiten"]</t>
+    <t>//android.view.View[@content-desc=' Abwesenheiten']/android.widget.TextView[@text='Abwesenheiten']</t>
+  </si>
+  <si>
+    <t>//android.view.View[@content-desc=' Geld verdienen']/android.widget.TextView[@text='Geld verdienen']</t>
+  </si>
+  <si>
+    <t>//android.widget.ListView//android.widget.TextView[@text='Profil']</t>
+  </si>
+  <si>
+    <t>//android.widget.ListView//android.widget.TextView[@text='Benachrichtigungen']</t>
   </si>
 </sst>
 </file>
@@ -565,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82737E07-8287-4E6B-9130-6C87B574EFB8}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -574,7 +574,7 @@
     <col min="1" max="1" width="47" customWidth="1"/>
     <col min="2" max="2" width="12.21875" customWidth="1"/>
     <col min="3" max="3" width="83.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="110.5546875" customWidth="1"/>
+    <col min="4" max="4" width="90.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="99.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="91.33203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -608,13 +608,13 @@
         <v>28</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>33</v>
@@ -794,7 +794,7 @@
     </row>
     <row r="18" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
